--- a/Data/Processing/2024-02-02/HAVELLS.xlsx
+++ b/Data/Processing/2024-02-02/HAVELLS.xlsx
@@ -1013,7 +1013,7 @@
         <v>44972</v>
       </c>
       <c r="B10">
-        <v>1191.24</v>
+        <v>1191.23</v>
       </c>
       <c r="C10">
         <v>1214.8</v>
@@ -1043,7 +1043,7 @@
         <v>-0.68</v>
       </c>
       <c r="L10">
-        <v>-3.82</v>
+        <v>-3.83</v>
       </c>
       <c r="M10">
         <v>-0.29</v>
@@ -2672,7 +2672,7 @@
         <v>1172.74</v>
       </c>
       <c r="E43">
-        <v>1187.75</v>
+        <v>1187.76</v>
       </c>
       <c r="F43">
         <v>1194.07</v>
@@ -2725,7 +2725,7 @@
         <v>1163.1</v>
       </c>
       <c r="F44">
-        <v>1187.75</v>
+        <v>1187.76</v>
       </c>
       <c r="G44">
         <v>795946</v>
@@ -2743,7 +2743,7 @@
         <v>-2.8</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="M44">
         <v>0.6799999999999997</v>
@@ -2802,7 +2802,7 @@
         <v>2.09</v>
       </c>
       <c r="O45">
-        <v>1190.585454545455</v>
+        <v>1190.585681818182</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>1.46</v>
       </c>
       <c r="O46">
-        <v>1190.245454545455</v>
+        <v>1190.245681818182</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>1.51</v>
       </c>
       <c r="O47">
-        <v>1189.945909090909</v>
+        <v>1189.946136363636</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -2952,7 +2952,7 @@
         <v>3.9</v>
       </c>
       <c r="O48">
-        <v>1190.313181818182</v>
+        <v>1190.313409090909</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>1.4</v>
       </c>
       <c r="O49">
-        <v>1189.854545454545</v>
+        <v>1189.854772727273</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>2.4</v>
       </c>
       <c r="O50">
-        <v>1189.421818181818</v>
+        <v>1189.422045454545</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>1.92</v>
       </c>
       <c r="O51">
-        <v>1189.5325</v>
+        <v>1189.532727272727</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>1.59</v>
       </c>
       <c r="O52">
-        <v>1190.098409090909</v>
+        <v>1190.098636363636</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>1.37</v>
       </c>
       <c r="O53">
-        <v>1190.098409090909</v>
+        <v>1190.098636363636</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -3252,7 +3252,7 @@
         <v>2.07</v>
       </c>
       <c r="O54">
-        <v>1190.0475</v>
+        <v>1190.047727272727</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -3302,7 +3302,7 @@
         <v>1.45</v>
       </c>
       <c r="O55">
-        <v>1189.879090909091</v>
+        <v>1189.879318181818</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>1.18</v>
       </c>
       <c r="O56">
-        <v>1189.746818181818</v>
+        <v>1189.747045454546</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>1.75</v>
       </c>
       <c r="O57">
-        <v>1190.074545454545</v>
+        <v>1190.074772727273</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>1.86</v>
       </c>
       <c r="O58">
-        <v>1190.275681818182</v>
+        <v>1190.275909090909</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>3.12</v>
       </c>
       <c r="O59">
-        <v>1191.171818181818</v>
+        <v>1191.172045454545</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>3.72</v>
       </c>
       <c r="O60">
-        <v>1192.438409090909</v>
+        <v>1192.438636363637</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>3.04</v>
       </c>
       <c r="O61">
-        <v>1194.809090909091</v>
+        <v>1194.809318181818</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>3.22</v>
       </c>
       <c r="O62">
-        <v>1196.81</v>
+        <v>1196.810227272727</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>2.44</v>
       </c>
       <c r="O63">
-        <v>1197.770454545454</v>
+        <v>1197.770681818182</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>2.45</v>
       </c>
       <c r="O64">
-        <v>1198.700454545454</v>
+        <v>1198.700681818182</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>2.4</v>
       </c>
       <c r="O65">
-        <v>1200.598863636364</v>
+        <v>1200.599090909091</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>3.5</v>
       </c>
       <c r="O66">
-        <v>1202.878863636364</v>
+        <v>1202.879090909091</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>1.72</v>
       </c>
       <c r="O67">
-        <v>1204.535227272727</v>
+        <v>1204.535454545455</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>1.17</v>
       </c>
       <c r="O68">
-        <v>1206.100227272727</v>
+        <v>1206.100454545455</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>2.23</v>
       </c>
       <c r="O69">
-        <v>1207.433409090909</v>
+        <v>1207.433636363636</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>1.23</v>
       </c>
       <c r="O70">
-        <v>1208.531818181818</v>
+        <v>1208.532045454545</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>1.15</v>
       </c>
       <c r="O71">
-        <v>1209.754545454545</v>
+        <v>1209.754772727273</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>1.62</v>
       </c>
       <c r="O72">
-        <v>1211.719318181818</v>
+        <v>1211.719545454546</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>1.46</v>
       </c>
       <c r="O73">
-        <v>1213.150909090909</v>
+        <v>1213.151136363636</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>2.7</v>
       </c>
       <c r="O74">
-        <v>1215.146363636364</v>
+        <v>1215.146590909091</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1.26</v>
       </c>
       <c r="O75">
-        <v>1217.071818181818</v>
+        <v>1217.072045454545</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>1.36</v>
       </c>
       <c r="O76">
-        <v>1219.703409090909</v>
+        <v>1219.703636363636</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>1.24</v>
       </c>
       <c r="O77">
-        <v>1221.855909090909</v>
+        <v>1221.856136363636</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>1.27</v>
       </c>
       <c r="O78">
-        <v>1224.017272727273</v>
+        <v>1224.0175</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2.98</v>
       </c>
       <c r="O79">
-        <v>1226.662272727273</v>
+        <v>1226.6625</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>3.78</v>
       </c>
       <c r="O80">
-        <v>1230.062045454545</v>
+        <v>1230.062272727273</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>1.21</v>
       </c>
       <c r="O81">
-        <v>1233.859772727273</v>
+        <v>1233.86</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>2.02</v>
       </c>
       <c r="O82">
-        <v>1238.555</v>
+        <v>1238.555227272727</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>2.3</v>
       </c>
       <c r="O83">
-        <v>1242.16</v>
+        <v>1242.160227272727</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.55</v>
       </c>
       <c r="O84">
-        <v>1245.818863636364</v>
+        <v>1245.819090909091</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>1.94</v>
       </c>
       <c r="O85">
-        <v>1249.685227272727</v>
+        <v>1249.685454545454</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>1.58</v>
       </c>
       <c r="O86">
-        <v>1253.063863636364</v>
+        <v>1253.064090909091</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>1.59</v>
       </c>
       <c r="O89">
-        <v>1265.137045454545</v>
+        <v>1265.137045454546</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>2.03</v>
       </c>
       <c r="O95">
-        <v>1284.736363636364</v>
+        <v>1284.736363636363</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>1.5</v>
       </c>
       <c r="O97">
-        <v>1288.657954545454</v>
+        <v>1288.657954545455</v>
       </c>
       <c r="P97">
         <v>1</v>
@@ -5902,7 +5902,7 @@
         <v>1.93</v>
       </c>
       <c r="O107">
-        <v>1301.134545454546</v>
+        <v>1301.134545454545</v>
       </c>
       <c r="P107">
         <v>1</v>
@@ -6552,7 +6552,7 @@
         <v>1.4</v>
       </c>
       <c r="O120">
-        <v>1312.657954545455</v>
+        <v>1312.657954545454</v>
       </c>
       <c r="P120">
         <v>1</v>
@@ -6652,7 +6652,7 @@
         <v>1.49</v>
       </c>
       <c r="O122">
-        <v>1314.422954545454</v>
+        <v>1314.422954545455</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>2.16</v>
       </c>
       <c r="O129">
-        <v>1310.534545454545</v>
+        <v>1310.534545454546</v>
       </c>
       <c r="P129">
         <v>1</v>
@@ -8752,7 +8752,7 @@
         <v>2.36</v>
       </c>
       <c r="O164">
-        <v>1351.372954545454</v>
+        <v>1351.372954545455</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>6.39</v>
       </c>
       <c r="O177">
-        <v>1373.615454545455</v>
+        <v>1373.615454545454</v>
       </c>
       <c r="P177">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>0.85</v>
       </c>
       <c r="O202">
-        <v>1316.847045454546</v>
+        <v>1316.847045454545</v>
       </c>
       <c r="P202">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>2.36</v>
       </c>
       <c r="O215">
-        <v>1297.951136363636</v>
+        <v>1297.951136363637</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -11852,7 +11852,7 @@
         <v>2.89</v>
       </c>
       <c r="O226">
-        <v>1308.509545454546</v>
+        <v>1308.509545454545</v>
       </c>
       <c r="P226">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>3.43</v>
       </c>
       <c r="O238">
-        <v>1349.414545454545</v>
+        <v>1349.414545454546</v>
       </c>
       <c r="P238">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>2.2</v>
       </c>
       <c r="O242">
-        <v>1352.354545454545</v>
+        <v>1352.354545454546</v>
       </c>
       <c r="P242">
         <v>0</v>
@@ -13935,7 +13935,7 @@
         <v>1.92</v>
       </c>
       <c r="O246">
-        <v>1353.715454545454</v>
+        <v>1353.715454545455</v>
       </c>
       <c r="P246">
         <v>0</v>
